--- a/test-data/cts_advanced_search_trialinvestigators_data.xlsx
+++ b/test-data/cts_advanced_search_trialinvestigators_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1F7C99-DED5-4853-A414-A723F2B556D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2931972-50EB-3449-A377-3729872A43E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4820" yWindow="1660" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trial_investigators" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>path</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Investigator name</t>
-  </si>
-  <si>
-    <t>Mark Andrew Dickson</t>
   </si>
   <si>
     <t>Victoria Lin Bae-Jump</t>
@@ -443,25 +440,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -487,7 +484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -513,7 +510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -539,7 +536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -562,32 +559,6 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -601,22 +572,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F37852-1742-4D46-8878-C628FE7DB1BD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,16 +595,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -644,10 +615,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -658,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/test-data/cts_advanced_search_trialinvestigators_data.xlsx
+++ b/test-data/cts_advanced_search_trialinvestigators_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1F7C99-DED5-4853-A414-A723F2B556D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB2C979-68F6-BE4F-B957-A20A382F0069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4820" yWindow="1660" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trial_investigators" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>path</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Investigator name</t>
-  </si>
-  <si>
-    <t>Mark Andrew Dickson</t>
   </si>
   <si>
     <t>Victoria Lin Bae-Jump</t>
@@ -443,25 +440,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.5" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -487,7 +484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -513,7 +510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -539,7 +536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -562,32 +559,6 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -601,22 +572,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F37852-1742-4D46-8878-C628FE7DB1BD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,16 +595,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -644,10 +615,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -658,7 +629,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
